--- a/Chapter12/Chapter 12 - HYPERLINK function.xlsx
+++ b/Chapter12/Chapter 12 - HYPERLINK function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F7434-CFA5-4AC2-8CBD-DA0892DBEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965666CF-5E6E-413C-BF6F-A043071C3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{37FAB995-9D1F-472B-B005-CA6D9758F971}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" xr2:uid="{37FAB995-9D1F-472B-B005-CA6D9758F971}"/>
   </bookViews>
   <sheets>
     <sheet name="HYPERLINK function" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +106,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -563,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A491B-AA89-47E4-9F03-E47F2AA5EB23}">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
